--- a/SRC/SYSTEM_RESOURCE_MONITOR.xlsx
+++ b/SRC/SYSTEM_RESOURCE_MONITOR.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="开源软件" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="开源软件 (Windows)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="开源软件 (Linux)" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>软件名称</t>
   </si>
@@ -26,6 +27,22 @@
   </si>
   <si>
     <t>支持平台</t>
+  </si>
+  <si>
+    <t>开源替代</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Explorer</t>
+  </si>
+  <si>
+    <t>learn.microsoft.com/en-us/sysinternals/downloads/process-explorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows
+(Wine 支持基础功能)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Informer、Task Explorer</t>
   </si>
   <si>
     <t>许可证</t>
@@ -189,14 +206,14 @@
     <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,15 +723,16 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="36.57421875"/>
+    <col customWidth="1" min="2" max="2" style="1" width="85.00390625"/>
     <col customWidth="1" min="3" max="3" style="1" width="36.28125"/>
-    <col min="4" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="61.140625"/>
+    <col min="5" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
+    <row r="1" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,14 +742,25 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="99.75" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" ht="99.75" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="52.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -766,73 +795,148 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="47.25" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" ht="57.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" style="1" width="27.140625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="32.28125"/>
+    <col customWidth="1" min="3" max="3" style="1" width="68.7109375"/>
+    <col customWidth="1" min="4" max="4" style="1" width="61.8515625"/>
+    <col customWidth="1" min="5" max="5" style="1" width="36.28125"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1"/>

--- a/SRC/SYSTEM_RESOURCE_MONITOR.xlsx
+++ b/SRC/SYSTEM_RESOURCE_MONITOR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>软件名称</t>
   </si>
@@ -90,6 +90,34 @@
   </si>
   <si>
     <t>github.com/aubymori/TaskManagerEx</t>
+  </si>
+  <si>
+    <t>CUI/GUI</t>
+  </si>
+  <si>
+    <t>btop</t>
+  </si>
+  <si>
+    <t>CUI</t>
+  </si>
+  <si>
+    <t>bpytop</t>
+  </si>
+  <si>
+    <t>htop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNOME System Monitor</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDE Plasma 
+System monitor</t>
   </si>
 </sst>
 </file>
@@ -892,7 +920,8 @@
     <col customWidth="1" min="3" max="3" style="1" width="68.7109375"/>
     <col customWidth="1" min="4" max="4" style="1" width="61.8515625"/>
     <col customWidth="1" min="5" max="5" style="1" width="36.28125"/>
-    <col min="6" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="6" max="6" style="1" width="22.00390625"/>
+    <col min="7" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="45" customHeight="1">
@@ -911,39 +940,75 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="45.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/SRC/SYSTEM_RESOURCE_MONITOR.xlsx
+++ b/SRC/SYSTEM_RESOURCE_MONITOR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>软件名称</t>
   </si>
@@ -98,26 +98,74 @@
     <t>btop</t>
   </si>
   <si>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>github.com/aristocratos/btop</t>
+  </si>
+  <si>
+    <t>Linux/*NIX</t>
+  </si>
+  <si>
     <t>CUI</t>
   </si>
   <si>
     <t>bpytop</t>
   </si>
   <si>
+    <t>github.com/aristocratos/bpytop</t>
+  </si>
+  <si>
     <t>htop</t>
   </si>
   <si>
+    <t>GPLv2</t>
+  </si>
+  <si>
+    <t>htop.dev</t>
+  </si>
+  <si>
+    <t>github.com/htop-dev/htop</t>
+  </si>
+  <si>
     <t xml:space="preserve">GNOME System Monitor</t>
   </si>
   <si>
+    <t>apps.gnome.org/zh-CN/SystemMonitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gitlab.gnome.org/GNOME/gnome-system-monitor
+github.com/GNOME/gnome-system-monitor</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
     <t>GUI</t>
   </si>
   <si>
     <t xml:space="preserve">Mission Center</t>
+  </si>
+  <si>
+    <t>missioncenter.io</t>
+  </si>
+  <si>
+    <t>gitlab.com/mission-center-devs/mission-center</t>
   </si>
   <si>
     <t xml:space="preserve">KDE Plasma 
 System monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPLv2、GPLv3、
+LicenseRef-KDE-Accepted-GPL</t>
+  </si>
+  <si>
+    <t>apps.kde.org/zh-cn/plasma-systemmonitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">github.com/KDE/plasma-systemmonitor
+invent.kde.org/plasma/plasma-systemmonitor</t>
   </si>
 </sst>
 </file>
@@ -948,66 +996,122 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="45.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/SYSTEM_RESOURCE_MONITOR.xlsx
+++ b/SRC/SYSTEM_RESOURCE_MONITOR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>软件名称</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>开源替代</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t xml:space="preserve">Process Explorer</t>
@@ -45,6 +48,21 @@
     <t xml:space="preserve">System Informer、Task Explorer</t>
   </si>
   <si>
+    <t xml:space="preserve">Process Monitor</t>
+  </si>
+  <si>
+    <t>learn.microsoft.com/en-us/sysinternals/downloads/procmon</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openprocmon、Process Monitor X v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procmon for Linux 在 GitHub 上开源</t>
+  </si>
+  <si>
     <t>许可证</t>
   </si>
   <si>
@@ -64,9 +82,6 @@
     <t>github.com/winsiderss/systeminformer</t>
   </si>
   <si>
-    <t>Windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task Explorer</t>
   </si>
   <si>
@@ -77,6 +92,15 @@
   </si>
   <si>
     <t>github.com/DavidXanatos/TaskExplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Explorer</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>github.com/zodiacon/SystemExplorer</t>
   </si>
   <si>
     <t xml:space="preserve">TaskManagerEx
@@ -86,10 +110,19 @@
     <t>未声明（源码为微软专有）</t>
   </si>
   <si>
-    <t>——</t>
-  </si>
-  <si>
     <t>github.com/aubymori/TaskManagerEx</t>
+  </si>
+  <si>
+    <t>Openprocmon</t>
+  </si>
+  <si>
+    <t>github.com/progmboy/openprocmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Monitor X v2</t>
+  </si>
+  <si>
+    <t>github.com/zodiacon/ProcMonXv2</t>
   </si>
   <si>
     <t>CUI/GUI</t>
@@ -194,7 +227,7 @@
       <name val="微软雅黑"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +238,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor theme="9" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +337,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,7 +873,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -805,7 +883,8 @@
     <col customWidth="1" min="2" max="2" style="1" width="85.00390625"/>
     <col customWidth="1" min="3" max="3" style="1" width="36.28125"/>
     <col customWidth="1" min="4" max="4" style="1" width="61.140625"/>
-    <col min="5" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="5" max="5" style="1" width="57.8515625"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="45" customHeight="1">
@@ -821,25 +900,40 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="52.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -871,80 +965,183 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" s="5" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="54" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -977,141 +1174,141 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="42.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="45.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
